--- a/public/assets/BOs/Fuxi.xlsx
+++ b/public/assets/BOs/Fuxi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CD2630-CE70-4F01-83E9-2E4CB35DAFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F1939-3163-4BFB-AD04-4C3694A91773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>7 / 1 KuaFu / 0</t>
   </si>
   <si>
-    <t>Fu xi fast 2 TC + 3 Kua Fu + Nezha - Looki</t>
-  </si>
-  <si>
     <t>5 next vils to hunt</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Go Harrass with your mythic unit and Nezha and build your 2nd TC asap with 2 Kuafu</t>
+  </si>
+  <si>
+    <t>Fast 2 TC + 3 Kua Fu + Nezha - By Looki</t>
   </si>
 </sst>
 </file>
@@ -401,9 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -413,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,31 +440,31 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +479,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,17 +489,17 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/BOs/Fuxi.xlsx
+++ b/public/assets/BOs/Fuxi.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD63F73A-2BFF-4EBB-BDF7-994EA6D3156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77F13C-9B4B-447C-9BDA-5C036EE1777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>Archaic</t>
   </si>
@@ -324,12 +327,245 @@
   <si>
     <t>3:30 double Kuafu - Mirez</t>
   </si>
+  <si>
+    <t>All new villagers go to food</t>
+  </si>
+  <si>
+    <t>Turn on Auto-build Kuafu</t>
+  </si>
+  <si>
+    <t>Initial 2 vills build Silo in middle of hunt clump and gather food. 
+Kuafu builds house then a Silo between Gold and Wood and gathers Gold. 
+(If there are no trees next to Gold then just build a silo at Gold).</t>
+  </si>
+  <si>
+    <t>8/1/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>At 250 gold Kuafu then builds silo at wood (or just moves to; if silo was between both) and gathers wood.</t>
+  </si>
+  <si>
+    <t>8/1/1/0</t>
+  </si>
+  <si>
+    <t>2nd Kuafu goes to wood. Turn off Auto-build Kuafu. You'll be aiming to 
+spend your favor on myth units in Classical Age.</t>
+  </si>
+  <si>
+    <t>At 150 wood Kuafu builds a temple. Temple pre queues Sacred Hands. The Building Kuafu goes to gold.</t>
+  </si>
+  <si>
+    <t>Advance - Xuannu (2.55)</t>
+  </si>
+  <si>
+    <t>3/4/4/0</t>
+  </si>
+  <si>
+    <t>4 villagers and 1 kuafu go wood
+3 villagers 1 kuafu go gold
+3 stay on food</t>
+  </si>
+  <si>
+    <t>Classical (3.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally new villagers to food. </t>
+  </si>
+  <si>
+    <t>Your priorities once ageing are to:
+Obtain a 2nd Qillin from the Temple
+Build an Imperial Academy and produce Nezha
+Build a House
+Build a Military Camp
+Build a Machine Workshop
+Move across the map and play aggressively (Destroy enemy buildings and keep moving around their base to contain them. You can use Vanish to retreat
+if your army is about to be overwhelmed and killed).</t>
+  </si>
+  <si>
+    <t>7/4/4/0</t>
+  </si>
+  <si>
+    <t>After this balance your economy where needed</t>
+  </si>
+  <si>
+    <t>Your next goals are:
+Upgrade the Military camp and Machine workshop with training yards
+Continue to produce Qillin's and Military Units</t>
+  </si>
+  <si>
+    <t>It is very important to keep your myth units alive. The Qillin have quite good
+speed and health but they do require constant attention.</t>
+  </si>
+  <si>
+    <t>One Base BO - By BqvH</t>
+  </si>
+  <si>
+    <t>All villagers go to food</t>
+  </si>
+  <si>
+    <t>Turn on Auto-Build for Kuafu</t>
+  </si>
+  <si>
+    <t>Initial 2 vills build Silo in middle of hunt clump and gather food. 
+Kuafu builds house then a Silo between Gold and Wood and gathers Gold. 
+(If there are no trees next to Gold then just build a silo at Gold).
+Cast Peach Blossom Spring in an area to maximise favor or use it next to trees to help block off a side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The 2nd Kuafu will start building around now
+Turn off Auto-Build for Kuafu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 150 wood Kuafu builds a temple. Temple researches Sacred Hands. </t>
+  </si>
+  <si>
+    <t>Advance - Chiyou (2.55)</t>
+  </si>
+  <si>
+    <t>2/4/4/0</t>
+  </si>
+  <si>
+    <t>4 villagers and 1 kuafu go wood
+4 villagers 1 kuafu go gold
+2 stay on food</t>
+  </si>
+  <si>
+    <t>2/5/4/0</t>
+  </si>
+  <si>
+    <t>Use your first Yazi to raid, scout or defend your 2nd TC. I often find using the Yazi to distract the opponent is helpful.</t>
+  </si>
+  <si>
+    <t>At around 300 wood and 300 gold, start sending 2 kuafus to 2nd TC</t>
+  </si>
+  <si>
+    <t>5/5/5/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can either build a 2nd Yazi and or turn on Auto-Build Kuafus </t>
+  </si>
+  <si>
+    <t>I prefer to get a 2nd Yazi and then turn on Auto-Build Kuafu on both TC's.
+Build an Imperial Academy to make use of Nezha. 
+Build an armory or market to enable Heroic Age research.</t>
+  </si>
+  <si>
+    <t>In order to get to Heroic Age quickly, wait on economic upgrades until after you begin to research Heroic Age.</t>
+  </si>
+  <si>
+    <t>Advance - Goumang (7:50)
+Heroic (9:05)</t>
+  </si>
+  <si>
+    <t>Notes for surviving until late game:
+Fu Xi is very strong in the Mythic Age due to having powerful heroes like (Nezha and Yang Jiang).
+Machine Workshops and Military Camps can be built near your resources and upgraded with towers. 
+Goumang in Heroic Age is a great defensive minor god due to Forest Protection.
+You can use up the Peach Blossom Spring to quickly gather resources and help you get to Mythic Age -
+I like to build a Baolei and focus my villagers on food then use Kuafus to quickly gather gold from the Peach Blossom Spring. 
+(Once you have enough gold you can switch the Peach Blossom to food to help you get 1200 food and 1200 gold)</t>
+  </si>
+  <si>
+    <t>Advance - Gonggong (12:00)
+Mythic (13:45)</t>
+  </si>
+  <si>
+    <t>Turn on Auto-Build Kuafu and Villager
+1 Villager goes to Hunt and gathers Food
+1 Villager goes builds a Dock
+1 Kuafu builds a Silo at Wood and gathers Wood</t>
+  </si>
+  <si>
+    <t>To save 50 Wood, kite the hunt to your Town Center just one at a time as each source gets low.
+Build the Dock as close to a Fish Source as possible.</t>
+  </si>
+  <si>
+    <t>2/1/0/0</t>
+  </si>
+  <si>
+    <t>Rally your next 1 villager to Food and then switch the rally to Wood 
+Your Villager and Kuafu rally will stay on Wood until you reach Classical 
+When your Villager has finished the Dock build a House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce Fishing Ships from your Dock. You will end up producing 6 Fishing Ships. 4 from the 1st Dock and then 2 from a 2nd Dock.
+If you can, try to connect your Dock to your Favored Land with the House.
+</t>
+  </si>
+  <si>
+    <t>3/4/0/0</t>
+  </si>
+  <si>
+    <t>Once you have 5 villagers on wood move your 1st Kuafu to Gold and build a silo if needed
+Keep your rally on Wood - even though your 1st Kuafu is switching to Gold, your 2nd Kuafu and Villagers will rally to Wood</t>
+  </si>
+  <si>
+    <t>After the House is built, move the Villager to another water spot and build a 2nd Dock.
+After the 2nd Dock is built return that Villager to Wood. Produce 2 Fishing Ships from this Dock and then stop Fishing Ship production for now.</t>
+  </si>
+  <si>
+    <t>8/7/0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 150 gold, build a Temple and a house (use a Kuafu). 
+While the Temple is building switch all your Villagers from Wood to Food and begin Aging as soon as you reach 400 food. </t>
+  </si>
+  <si>
+    <t>Advance - Xuannu or Chiyou (3.35)</t>
+  </si>
+  <si>
+    <t>17/1/1/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You'll have about 10 Villagers and 6 Ships on food at this point. Take 4 of them and put them on gold. Take another 5 and put them on wood. Leave just 1 on food. </t>
+  </si>
+  <si>
+    <t>7/7/6/0</t>
+  </si>
+  <si>
+    <t>Build a 3rd Dock</t>
+  </si>
+  <si>
+    <t>Build a few more Fishing Ships if there are Fish sources available</t>
+  </si>
+  <si>
+    <t>Classical (4.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Build an Imperal Academy and produce Nezha</t>
+  </si>
+  <si>
+    <t>Once Classical hits there will be a lot of multi-tasking happening.
+Your priorities are:
+Win the Water Battle. Produce Military Ships from your docks keeping in mind that Arrow Ships beat Melee Ships which beat Siege Ships which beat Arrow Ships.
+If your Fishing Ships are under attack Garrison them into the Docks in order for the Docks to fire arrows back. 
+Harrass the enemys villagers with your Qillin/Yazi and Nezha.</t>
+  </si>
+  <si>
+    <t>Your long term priorities are:
+Upgrade your Fishing Ships (The Classical upgrade is 'Purse Seine') from one of your Docks. This upgrade will dramatically increase the amount of Food the Fishing Ships return.
+Age to Heroic, the myth unit spawned at your Docks is a big help in the water battle.
+Build a 2nd or even a 3rd TC to support the upcoming land battles. 
+Start building up a land army.</t>
+  </si>
+  <si>
+    <t>Water - By BqvH</t>
+  </si>
+  <si>
+    <t>2 TC Fast Mythic Build Order - By BqvH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,8 +606,47 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +663,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,10 +745,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -465,6 +759,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -484,9 +784,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DD0B6ED4-DCED-4893-82FE-1784575A1360}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -822,141 +1136,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:C15 B1:C1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F763F477-866C-4C8C-9F90-45B659FC8F6E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -964,7 +1169,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -974,7 +1179,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -984,7 +1189,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -998,7 +1203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1008,15 +1213,15 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1229,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1034,15 +1239,15 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1255,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1069,4 +1274,592 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4845777-F807-476E-B94C-F651C8575ECC}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBCD348-4135-4A44-88D7-C13E373323DB}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" activeCellId="1" sqref="A1:D6 F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DA1104-723F-4704-99AD-7EFB6062E50F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:C15 B1:C1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/public/assets/BOs/Fuxi.xlsx
+++ b/public/assets/BOs/Fuxi.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77F13C-9B4B-447C-9BDA-5C036EE1777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6EC74B-B456-4054-AB67-F9B776B77C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="4" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="5" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="6" r:id="rId4"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId5"/>
+    <sheet name="Feuil5" sheetId="7" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
   <si>
     <t>Archaic</t>
   </si>
@@ -559,6 +560,75 @@
   </si>
   <si>
     <t>2 TC Fast Mythic Build Order - By BqvH</t>
+  </si>
+  <si>
+    <t>2 / 1 / 0 / 0</t>
+  </si>
+  <si>
+    <t>Place Peach Bloosom to maximize favor generation, 2 villagers make storehouse close to hunt</t>
+  </si>
+  <si>
+    <t>Kuafu gathers 20 wood then builds storehouse near wood and gold and goes on gold (preque pickaxe as soon as you build storehouse)</t>
+  </si>
+  <si>
+    <t>Pioneer goes scouting, rally point from tc to food</t>
+  </si>
+  <si>
+    <t>7 / 0 / 1 / 0</t>
+  </si>
+  <si>
+    <t>Once you gather 300 gold, Kuafu switches to wood (preque handaxe)</t>
+  </si>
+  <si>
+    <t>Preque your second Kuafu (1:45)</t>
+  </si>
+  <si>
+    <t>9 / 1 / 0 / 0</t>
+  </si>
+  <si>
+    <t>Kuafu builds temple then goes back to wood</t>
+  </si>
+  <si>
+    <t>Once second Kuafu pops out, send him to gold and age up!</t>
+  </si>
+  <si>
+    <t>9 / 1 / 1 / 0</t>
+  </si>
+  <si>
+    <t>Advance (2:50)</t>
+  </si>
+  <si>
+    <t>Auto-Queue Vills again</t>
+  </si>
+  <si>
+    <t>3 Villagers from food go to gold</t>
+  </si>
+  <si>
+    <t>4 Villagers from food go to wood</t>
+  </si>
+  <si>
+    <t>TC rally point goes to food</t>
+  </si>
+  <si>
+    <t>2 / 5 / 4 / 0</t>
+  </si>
+  <si>
+    <t>When you have enough wood, build house</t>
+  </si>
+  <si>
+    <t>Build another Pioneer, reasearch Divine light</t>
+  </si>
+  <si>
+    <t>Make sure your scouting and picking relics</t>
+  </si>
+  <si>
+    <t>Classical (3:50)</t>
+  </si>
+  <si>
+    <t>Preque Kuafus (since your TC rally point is on food, make sure as soon as they pop out to relocate them to wood/gold according to your gameplan</t>
+  </si>
+  <si>
+    <t>Pickaxe/Handaxe 2 Kuafus - By Motaba</t>
   </si>
 </sst>
 </file>
@@ -749,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -794,9 +864,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,9 +1210,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1220,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1228,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1236,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1179,7 +1246,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1189,7 +1256,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1203,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1213,7 +1280,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1288,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1296,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1239,7 +1306,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1314,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1322,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1277,6 +1344,135 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E654D3-AF4A-4D6F-AE6A-3E7B3599F3AF}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4845777-F807-476E-B94C-F651C8575ECC}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1284,9 +1480,9 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
@@ -1294,7 +1490,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1498,7 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1310,7 +1506,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1322,7 +1518,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1334,7 +1530,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -1346,19 +1542,19 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
@@ -1366,7 +1562,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1376,7 +1572,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>48</v>
       </c>
@@ -1384,7 +1580,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>49</v>
@@ -1394,7 +1590,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -1408,13 +1604,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
@@ -1431,17 +1627,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBCD348-4135-4A44-88D7-C13E373323DB}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" activeCellId="1" sqref="A1:D6 F8"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>95</v>
       </c>
@@ -1449,7 +1645,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1653,7 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +1661,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1477,7 +1673,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>59</v>
@@ -1487,7 +1683,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1497,19 +1693,19 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>61</v>
       </c>
@@ -1517,7 +1713,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
@@ -1527,7 +1723,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>48</v>
       </c>
@@ -1535,7 +1731,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -1545,7 +1741,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>66</v>
@@ -1553,7 +1749,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1565,7 +1761,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
@@ -1573,7 +1769,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>71</v>
       </c>
@@ -1581,7 +1777,7 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="6" t="s">
@@ -1589,7 +1785,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>73</v>
       </c>
@@ -1610,17 +1806,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DA1104-723F-4704-99AD-7EFB6062E50F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>94</v>
       </c>
@@ -1628,7 +1824,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1636,59 +1832,59 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>84</v>
       </c>
@@ -1696,29 +1892,29 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>90</v>
       </c>
@@ -1726,23 +1922,23 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1755,30 +1951,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1789,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1797,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +2001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +2009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1821,37 +2017,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
